--- a/BacklogRevivre.xlsx
+++ b/BacklogRevivre.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Documents\GitHub\Revivre\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19035"/>
   </bookViews>
   <sheets>
     <sheet name="Stories" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>N°</t>
   </si>
@@ -51,9 +56,6 @@
     <t>L'utilisateur peut attribuer des salariés au chantier</t>
   </si>
   <si>
-    <t>L'administrateur peut changer les droits des utilisateurs</t>
-  </si>
-  <si>
     <t>L'administrateur peut créer des utilisateurs</t>
   </si>
   <si>
@@ -78,7 +80,55 @@
     <t>L'utilisateur peut gérer les repas</t>
   </si>
   <si>
-    <t>L'utilisateur peut visualiser les temps de travail</t>
+    <t>L'utilisateur peut modifier un contact</t>
+  </si>
+  <si>
+    <t>L'utilisateur peut ajouter un contact dans le repertoire</t>
+  </si>
+  <si>
+    <t>L'utilisateur peut visualiser le repertoire (contacts)</t>
+  </si>
+  <si>
+    <t>Jauge de progression</t>
+  </si>
+  <si>
+    <t>L'utilisateur peut visualiser et ajouter les temps de travail</t>
+  </si>
+  <si>
+    <t>L'utilisateur peut modifier l'état du chantier</t>
+  </si>
+  <si>
+    <t>L'utilisateur peut ajouter des achats sur un chantier</t>
+  </si>
+  <si>
+    <t>L'utilisateur peut ajouter des produits</t>
+  </si>
+  <si>
+    <t>Graphes des heures de travail et achats</t>
+  </si>
+  <si>
+    <t>L'utilisateur peut envoyer des rapports de bug</t>
+  </si>
+  <si>
+    <t>Feuille de presentation du salarié</t>
+  </si>
+  <si>
+    <t>Feuille de présence du salarié</t>
+  </si>
+  <si>
+    <t>Taux d'absenteisme</t>
+  </si>
+  <si>
+    <t>Edition planning</t>
+  </si>
+  <si>
+    <t>Sortie du salarié/motif</t>
+  </si>
+  <si>
+    <t>Feuille de congé</t>
+  </si>
+  <si>
+    <t>L'utilisateur peut filtrer les chantiers en fonction du client ou du responsable</t>
   </si>
 </sst>
 </file>
@@ -144,59 +194,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -204,21 +248,24 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:D17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D17"/>
-  <sortState ref="A2:D13">
-    <sortCondition ref="A1:A13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:D32" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:D32"/>
+  <sortState ref="A2:D25">
+    <sortCondition ref="A1:A25"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="2" name="N°" dataDxfId="3"/>
-    <tableColumn id="1" name="Story" dataDxfId="2"/>
-    <tableColumn id="3" name="Priorité" dataDxfId="1"/>
-    <tableColumn id="5" name="Itération" dataDxfId="0"/>
+    <tableColumn id="2" name="N°" dataDxfId="5"/>
+    <tableColumn id="1" name="Story" dataDxfId="4"/>
+    <tableColumn id="3" name="Priorité" dataDxfId="3"/>
+    <tableColumn id="5" name="Itération" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -511,25 +558,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,281 +590,463 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5">
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>7</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
         <v>9</v>
       </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="5">
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1">
         <v>11</v>
       </c>
-      <c r="C12" s="2">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="28">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="28">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="E21"/>
-      <c r="F21"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="E22"/>
-      <c r="F22"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="E23"/>
-      <c r="F23"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="E24"/>
-      <c r="F24"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="E25"/>
-      <c r="F25"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="E26"/>
-      <c r="F26"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="E27"/>
-      <c r="F27"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="E29"/>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/BacklogRevivre.xlsx
+++ b/BacklogRevivre.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Documents\GitHub\Revivre\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19040"/>
   </bookViews>
   <sheets>
     <sheet name="Stories" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>N°</t>
   </si>
@@ -38,9 +33,6 @@
     <t>Priorité</t>
   </si>
   <si>
-    <t>L'utilisateur se connecte sur l'adresse de l'intranet</t>
-  </si>
-  <si>
     <t>L'utilisateur peut visualiser les chantiers existants</t>
   </si>
   <si>
@@ -50,9 +42,6 @@
     <t>Au lancement l’utilisateur peut entrer ses identifiants</t>
   </si>
   <si>
-    <t>L'utilisateur peut imprimer un devis</t>
-  </si>
-  <si>
     <t>L'utilisateur peut attribuer des salariés au chantier</t>
   </si>
   <si>
@@ -74,9 +63,6 @@
     <t>L'utilisateur peut attribuer un logement pour les personnes en réinsertion</t>
   </si>
   <si>
-    <t>L'utilisateur ajouter des contrôles du chantier</t>
-  </si>
-  <si>
     <t>L'utilisateur peut gérer les repas</t>
   </si>
   <si>
@@ -129,6 +115,21 @@
   </si>
   <si>
     <t>L'utilisateur peut filtrer les chantiers en fonction du client ou du responsable</t>
+  </si>
+  <si>
+    <t>L'utilisateur se connecte sur l'adresse internet</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Importation des anciennes données</t>
+  </si>
+  <si>
+    <t>EN COURS</t>
   </si>
 </sst>
 </file>
@@ -177,8 +178,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -206,24 +229,49 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+  <cellStyles count="37">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -256,16 +304,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:D32" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:D32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:E31" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E31"/>
   <sortState ref="A2:D25">
     <sortCondition ref="A1:A25"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="2" name="N°" dataDxfId="5"/>
-    <tableColumn id="1" name="Story" dataDxfId="4"/>
-    <tableColumn id="3" name="Priorité" dataDxfId="3"/>
-    <tableColumn id="5" name="Itération" dataDxfId="2"/>
+  <tableColumns count="5">
+    <tableColumn id="2" name="N°" dataDxfId="4"/>
+    <tableColumn id="1" name="Story" dataDxfId="3"/>
+    <tableColumn id="3" name="Priorité" dataDxfId="2"/>
+    <tableColumn id="5" name="Itération" dataDxfId="1"/>
+    <tableColumn id="4" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -558,25 +607,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="51.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,13 +638,16 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -603,13 +655,16 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -617,436 +672,557 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="C12" s="1">
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1">
         <v>12</v>
       </c>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1">
-        <v>13</v>
-      </c>
       <c r="D13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="C16" s="1">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
       <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1">
         <v>18</v>
       </c>
-      <c r="C19" s="1">
-        <v>3</v>
-      </c>
       <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="C23" s="1">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1">
-        <v>9</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="1">
-        <v>10</v>
-      </c>
       <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2"/>
+        <v>3</v>
+      </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>27</v>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C26" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2"/>
+        <v>4</v>
+      </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>28</v>
+      <c r="B27" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1">
-        <v>2</v>
-      </c>
-      <c r="E27" s="2"/>
+        <v>4</v>
+      </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="28">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="C29" s="1">
-        <v>2</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="1">
-        <v>20</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="B31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3</v>
-      </c>
       <c r="D31" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="1">
         <v>4</v>
       </c>
-      <c r="D32" s="1">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/BacklogRevivre.xlsx
+++ b/BacklogRevivre.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700"/>
   </bookViews>
   <sheets>
     <sheet name="Stories" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>L'utilisateur peut attribuer des salariés au chantier</t>
   </si>
   <si>
-    <t>L'administrateur peut créer des utilisateurs</t>
-  </si>
-  <si>
     <t>L'utilsateur peut attribuer des encadrants au chantier</t>
   </si>
   <si>
@@ -96,24 +93,6 @@
     <t>L'utilisateur peut envoyer des rapports de bug</t>
   </si>
   <si>
-    <t>Feuille de presentation du salarié</t>
-  </si>
-  <si>
-    <t>Feuille de présence du salarié</t>
-  </si>
-  <si>
-    <t>Taux d'absenteisme</t>
-  </si>
-  <si>
-    <t>Edition planning</t>
-  </si>
-  <si>
-    <t>Sortie du salarié/motif</t>
-  </si>
-  <si>
-    <t>Feuille de congé</t>
-  </si>
-  <si>
     <t>L'utilisateur peut filtrer les chantiers en fonction du client ou du responsable</t>
   </si>
   <si>
@@ -130,6 +109,27 @@
   </si>
   <si>
     <t>EN COURS</t>
+  </si>
+  <si>
+    <t>L'utilisateur peut ajouter des salariés en insertion</t>
+  </si>
+  <si>
+    <t>L'utilisateur peut visualiser et modifier ces salariés</t>
+  </si>
+  <si>
+    <t>L'utilisateur peut suivre l'activité d'un encadrant</t>
+  </si>
+  <si>
+    <t>L'utilisateur peut exporter des données sous excel</t>
+  </si>
+  <si>
+    <t>L'utilisateur peut supprimer des temps de travail</t>
+  </si>
+  <si>
+    <t>L'utilisateur peut supprimer des achats</t>
+  </si>
+  <si>
+    <t>L'utilisateur peut faire des remises aux fournisseurs</t>
   </si>
 </sst>
 </file>
@@ -178,8 +178,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -229,7 +233,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -248,6 +252,8 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -266,6 +272,8 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -613,7 +621,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A2" sqref="A2:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -639,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -647,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -656,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -673,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -681,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -690,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -699,7 +707,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -708,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -717,7 +725,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -726,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -744,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -761,7 +769,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -778,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -786,7 +794,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
@@ -795,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -803,7 +811,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -812,7 +820,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -820,7 +828,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1">
         <v>11</v>
@@ -829,7 +837,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -837,7 +845,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
@@ -846,7 +854,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28">
@@ -854,7 +862,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
         <v>13</v>
@@ -863,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -871,7 +879,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
@@ -880,7 +888,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -889,7 +897,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1">
         <v>15</v>
@@ -898,7 +906,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -907,7 +915,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1">
         <v>16</v>
@@ -916,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -925,7 +933,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1">
         <v>17</v>
@@ -934,7 +942,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -942,16 +950,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1">
         <v>18</v>
       </c>
       <c r="D19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -959,7 +967,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1">
         <v>19</v>
@@ -973,7 +981,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1">
         <v>20</v>
@@ -987,7 +995,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1">
         <v>21</v>
@@ -1001,7 +1009,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1">
         <v>22</v>
@@ -1015,7 +1023,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1">
         <v>23</v>
@@ -1029,7 +1037,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1">
         <v>24</v>
@@ -1044,13 +1052,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1">
         <v>25</v>
       </c>
       <c r="D26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" s="2"/>
     </row>
@@ -1059,7 +1067,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1">
         <v>26</v>
@@ -1074,7 +1082,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1">
         <v>27</v>
@@ -1089,7 +1097,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1">
         <v>28</v>
@@ -1104,7 +1112,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="1">
         <v>29</v>
@@ -1118,7 +1126,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="1">
         <v>30</v>
